--- a/jpcore-r4/feature/swg3-practionerRole対応/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg3-practionerRole対応/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="454">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T13:52:43+00:00</t>
+    <t>2022-08-03T11:17:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -548,7 +548,7 @@
   </si>
   <si>
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.
-この特定のObservationが別のより大きなイベントの要素あるいは一段階であるような親イベント。たとえば、一連の処置手順の一部としてのObservation.</t>
+この特定のObservationが別のより大きなイベントの要素あるいは一段階であるような親イベント。たとえば、一連の処置手順の一部としてのObservation。</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.
@@ -1044,12 +1044,7 @@
 観察が行われた被験者の体の部位（すなわち、標的部位）を示す。</t>
   </si>
   <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).
-【JP仕様】&lt;br/&gt;
-外保連の手術基幹コード（STEM7）の操作対象部位を基にバリューセットを定義する&lt;br/&gt;
-左右の区別は拡張で表現する&lt;br/&gt;
-具体的なコードについてはSWG6と連携して決定する必要がある（TBD）</t>
+    <t>ICD-11</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/observation-bodySite</t>
@@ -1065,105 +1060,6 @@
   </si>
   <si>
     <t>718497002 |Inherent location|</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>bodySitePosition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Observation_BodySite_BodySitePosition}
-</t>
-  </si>
-  <si>
-    <t>部位（bodySite）の左右の区別を表現する際に使用する</t>
-  </si>
-  <si>
-    <t>左右の区別を表現する際に使用する</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.method</t>
@@ -1289,7 +1185,25 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Observation.referenceRange.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1903,7 +1817,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO56"/>
+  <dimension ref="A1:AO51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1913,7 +1827,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.30078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1939,7 +1853,7 @@
     <col min="25" max="25" width="59.80078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -5165,7 +5079,7 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>321</v>
@@ -5173,8 +5087,12 @@
       <c r="L28" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="M28" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5198,13 +5116,11 @@
         <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5222,7 +5138,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5234,7 +5150,7 @@
         <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>81</v>
@@ -5243,10 +5159,10 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5257,18 +5173,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>81</v>
@@ -5280,16 +5196,16 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>137</v>
+        <v>329</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>138</v>
+        <v>330</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>140</v>
+        <v>332</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5327,58 +5243,56 @@
         <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AC29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5387,7 +5301,7 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>81</v>
@@ -5399,16 +5313,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5458,42 +5372,42 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>343</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>81</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5513,22 +5427,22 @@
         <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>81</v>
@@ -5577,7 +5491,7 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5589,7 +5503,7 @@
         <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>81</v>
@@ -5598,10 +5512,10 @@
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5612,7 +5526,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5632,23 +5546,19 @@
         <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5696,7 +5606,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5708,7 +5618,7 @@
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>81</v>
@@ -5717,10 +5627,10 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5731,18 +5641,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -5754,20 +5664,18 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>353</v>
+        <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5791,11 +5699,13 @@
         <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>81</v>
@@ -5813,19 +5723,19 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>81</v>
@@ -5834,7 +5744,7 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>358</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>359</v>
@@ -5848,41 +5758,43 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>361</v>
+        <v>137</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5930,42 +5842,42 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>367</v>
+        <v>134</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>368</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5988,17 +5900,15 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>373</v>
-      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>81</v>
@@ -6047,7 +5957,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -6056,7 +5966,7 @@
         <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>103</v>
@@ -6065,24 +5975,24 @@
         <v>81</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>377</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6093,7 +6003,7 @@
         <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>81</v>
@@ -6105,20 +6015,16 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6166,31 +6072,31 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6201,7 +6107,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6224,16 +6130,20 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6257,13 +6167,13 @@
         <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>81</v>
@@ -6281,7 +6191,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6293,19 +6203,19 @@
         <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>386</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6320,7 +6230,7 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6339,18 +6249,20 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>138</v>
+        <v>389</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>326</v>
+        <v>390</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6374,13 +6286,13 @@
         <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>81</v>
+        <v>393</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6398,7 +6310,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6410,19 +6322,19 @@
         <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>386</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6433,42 +6345,40 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>137</v>
+        <v>397</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>146</v>
+        <v>400</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6517,19 +6427,19 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>81</v>
@@ -6541,7 +6451,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>134</v>
+        <v>401</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6552,7 +6462,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6575,13 +6485,13 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>395</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6632,7 +6542,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6641,7 +6551,7 @@
         <v>91</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>103</v>
@@ -6653,10 +6563,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6667,7 +6577,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6678,7 +6588,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
@@ -6687,18 +6597,20 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -6747,16 +6659,16 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>103</v>
@@ -6768,10 +6680,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6782,7 +6694,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6793,7 +6705,7 @@
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>81</v>
@@ -6802,23 +6714,21 @@
         <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>189</v>
+        <v>414</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>81</v>
       </c>
@@ -6842,13 +6752,13 @@
         <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>410</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>411</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>81</v>
@@ -6866,13 +6776,13 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>81</v>
@@ -6884,13 +6794,13 @@
         <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>301</v>
+        <v>418</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6901,7 +6811,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6921,22 +6831,22 @@
         <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>189</v>
+        <v>347</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -6961,31 +6871,31 @@
         <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -7003,13 +6913,13 @@
         <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>301</v>
+        <v>425</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7020,7 +6930,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7043,18 +6953,16 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>423</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>424</v>
+        <v>356</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>425</v>
+        <v>357</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>426</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7102,7 +7010,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>422</v>
+        <v>358</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7114,7 +7022,7 @@
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>81</v>
@@ -7126,7 +7034,7 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>427</v>
+        <v>359</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7137,18 +7045,18 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>81</v>
@@ -7160,15 +7068,17 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>429</v>
+        <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>81</v>
@@ -7217,19 +7127,19 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>81</v>
@@ -7238,10 +7148,10 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>431</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7252,11 +7162,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7269,24 +7179,26 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>433</v>
+        <v>137</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7334,7 +7246,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>432</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7346,7 +7258,7 @@
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>81</v>
@@ -7355,10 +7267,10 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>437</v>
+        <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>438</v>
+        <v>134</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7369,7 +7281,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7377,10 +7289,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>81</v>
@@ -7392,24 +7304,26 @@
         <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>440</v>
+        <v>189</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>81</v>
@@ -7427,13 +7341,11 @@
         <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
@@ -7451,13 +7363,13 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>81</v>
@@ -7469,16 +7381,16 @@
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>437</v>
+        <v>209</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>444</v>
+        <v>210</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7486,7 +7398,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7497,7 +7409,7 @@
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>81</v>
@@ -7509,19 +7421,19 @@
         <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>449</v>
+        <v>273</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7570,13 +7482,13 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>81</v>
@@ -7588,24 +7500,24 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>450</v>
+        <v>278</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>451</v>
+        <v>279</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7628,16 +7540,20 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>321</v>
+        <v>442</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7661,13 +7577,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7685,7 +7601,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>323</v>
+        <v>441</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7694,10 +7610,10 @@
         <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>81</v>
@@ -7706,10 +7622,10 @@
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7720,11 +7636,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>136</v>
+        <v>292</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7743,18 +7659,20 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>138</v>
+        <v>293</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>326</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
       </c>
@@ -7778,13 +7696,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -7802,7 +7720,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7814,34 +7732,34 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7854,25 +7772,25 @@
         <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>391</v>
+        <v>450</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>392</v>
+        <v>451</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>140</v>
+        <v>452</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>146</v>
+        <v>453</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7921,7 +7839,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7933,7 +7851,7 @@
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>81</v>
@@ -7942,608 +7860,15 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>134</v>
+        <v>354</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X52" s="2"/>
-      <c r="Y52" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO56" t="s" s="2">
         <v>81</v>
       </c>
     </row>
